--- a/Assignment1_Due03052019/Q1/time_log.xlsx
+++ b/Assignment1_Due03052019/Q1/time_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdw12_000\Desktop\Ara\BCPR280_SoftwareEngineering2\Assignment1_Due03052019\Q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FCEE64-05BC-4E2F-B269-902EAB1A0EED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA8BF6C-97DA-467C-B1C3-F1D3091D71D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7950" yWindow="5925" windowWidth="18330" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9885" yWindow="2430" windowWidth="18330" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>PSP Time Recording Log</t>
   </si>
@@ -369,6 +369,14 @@
   </si>
   <si>
     <t>Creating Requirements Statement, Task Summary and Time Log</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designing</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Drawing a design level class diagram &amp; Activity diagram</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -632,6 +640,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -647,8 +657,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1066,17 +1074,34 @@
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="14">
         <v>43543</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="15">
         <v>0.89930555555555547</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="15">
         <v>0.92708333333333337</v>
       </c>
       <c r="H7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14">
+        <v>43549</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.92291666666666661</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0.94930555555555562</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1106,7 +1131,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1114,31 +1139,31 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
@@ -1146,13 +1171,13 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1182,7 +1207,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1190,13 +1215,13 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
